--- a/exemplos/Relatório_cartão_athenas.xlsx
+++ b/exemplos/Relatório_cartão_athenas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -532,11 +532,11 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>400</v>
+        <v>5860.48</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -565,11 +565,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>2.45</v>
+        <v>31.62</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -582,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -598,11 +598,11 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>3587.6</v>
+        <v>5596</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -631,11 +631,11 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>26.7</v>
+        <v>11.63</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -664,7 +664,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -697,7 +697,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>273.5</v>
+        <v>43.77</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -730,11 +730,11 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>2528</v>
+        <v>2840.66</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -763,11 +763,11 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>31.9</v>
+        <v>3.26</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -796,11 +796,11 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2759.6</v>
+        <v>1778</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -829,11 +829,11 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>12.22</v>
+        <v>133.88</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -862,11 +862,11 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>2450</v>
+        <v>7320</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -879,7 +879,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -895,11 +895,11 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>42.62</v>
+        <v>13.17</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -912,11 +912,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -928,11 +928,11 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>4345</v>
+        <v>4849.99</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -945,27 +945,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>33.82</v>
+        <v>3.96</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -994,11 +994,11 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>600</v>
+        <v>3078</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1027,11 +1027,11 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>33.18</v>
+        <v>8.85</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1093,7 +1093,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>38.28</v>
+        <v>20.94</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1126,11 +1126,11 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>1270</v>
+        <v>7610</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1159,11 +1159,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>72.06</v>
+        <v>28.75</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1176,11 +1176,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1192,11 +1192,11 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>1150</v>
+        <v>540</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1209,27 +1209,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2.37</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1242,7 +1240,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1258,11 +1256,11 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>4928</v>
+        <v>2080</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -1275,7 +1273,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1291,11 +1289,11 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>13.67</v>
+        <v>64.11</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1308,11 +1306,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1324,11 +1322,11 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>2149.6</v>
+        <v>1025</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1341,27 +1339,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>97</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1374,7 +1370,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1390,11 +1386,11 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>4164.4</v>
+        <v>1340</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1407,7 +1403,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1422,12 +1418,10 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>208.19</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -1440,7 +1434,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1456,11 +1450,11 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>3050</v>
+        <v>3578</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1473,7 +1467,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1488,12 +1482,10 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -1506,11 +1498,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1522,11 +1514,11 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>1079.6</v>
+        <v>7200</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -1539,27 +1531,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>8.529999999999999</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -1572,7 +1562,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1588,11 +1578,11 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>2250</v>
+        <v>4118</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -1605,7 +1595,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1621,11 +1611,11 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>47.77</v>
+        <v>5.92</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
@@ -1638,11 +1628,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1654,11 +1644,11 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>680</v>
+        <v>4624</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -1671,27 +1661,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>204.24</v>
+        <v>32.54</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -1704,7 +1694,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1720,11 +1710,11 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>680</v>
+        <v>4286.64</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -1737,7 +1727,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1753,11 +1743,11 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>11.85</v>
+        <v>31.62</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -1770,7 +1760,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1786,11 +1776,11 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>720</v>
+        <v>12681</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -1803,7 +1793,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1818,12 +1808,10 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -1836,11 +1824,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1852,11 +1840,11 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>7980</v>
+        <v>649</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -1869,27 +1857,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.37</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -1902,11 +1888,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1918,11 +1904,11 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>600</v>
+        <v>1399.9</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -1935,27 +1921,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>30.62</v>
+        <v>44.4</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -1968,7 +1954,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1984,11 +1970,11 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>5179.8</v>
+        <v>650</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -2001,7 +1987,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2017,11 +2003,11 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>35.05</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2034,7 +2020,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2050,11 +2036,11 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>6248.6</v>
+        <v>2700</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2067,7 +2053,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2083,11 +2069,11 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>113.66</v>
+        <v>95.91</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2100,11 +2086,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2116,11 +2102,11 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>920</v>
+        <v>5700</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2133,27 +2119,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>40.7</v>
+        <v>146.53</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2166,11 +2152,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -2182,11 +2168,11 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>2360</v>
+        <v>1060</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2199,27 +2185,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>375.01</v>
+        <v>55.95</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2232,7 +2218,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2248,11 +2234,11 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>1650</v>
+        <v>3240</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2265,7 +2251,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2281,11 +2267,11 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>52.07</v>
+        <v>36.71</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -2298,7 +2284,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2314,11 +2300,11 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>9500</v>
+        <v>720</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -2331,7 +2317,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2347,11 +2333,11 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>11.57</v>
+        <v>154</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -2364,11 +2350,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -2380,11 +2366,11 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>939.8</v>
+        <v>11479.8</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -2397,27 +2383,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>88.8</v>
+        <v>91.47</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:10</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -2430,11 +2416,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -2446,11 +2432,11 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>1430</v>
+        <v>1200</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -2463,27 +2449,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>20.4</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -2496,7 +2482,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2512,11 +2498,11 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>5567.9</v>
+        <v>5402.45</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -2529,7 +2515,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2545,11 +2531,11 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>14.4</v>
+        <v>160.71</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -2562,11 +2548,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
@@ -2578,11 +2564,11 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>640</v>
+        <v>4850</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -2595,27 +2581,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>79.93000000000001</v>
+        <v>38.99</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -2628,7 +2614,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2644,11 +2630,11 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>5370</v>
+        <v>6782</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:8</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -2661,7 +2647,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2677,11 +2663,11 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>7.81</v>
+        <v>11.88</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:8</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -2694,11 +2680,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
@@ -2710,11 +2696,11 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>4590</v>
+        <v>1869.8</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -2727,27 +2713,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>26.8</v>
+        <v>10.18</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -2760,11 +2746,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
@@ -2776,11 +2762,11 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>1440</v>
+        <v>5489.4</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -2793,27 +2779,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>106.52</v>
+        <v>44.02</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -2826,7 +2812,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2842,7 +2828,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>50</v>
+        <v>5300</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2859,7 +2845,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2875,7 +2861,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>14.28</v>
+        <v>7.66</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -2892,7 +2878,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2908,11 +2894,11 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>2970</v>
+        <v>1500</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -2925,7 +2911,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2941,11 +2927,11 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>103</v>
+        <v>48.46</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -2958,7 +2944,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2974,11 +2960,11 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>230</v>
+        <v>339.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -2991,7 +2977,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3007,11 +2993,11 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>14.24</v>
+        <v>39.08</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3024,7 +3010,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3040,11 +3026,11 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>1610</v>
+        <v>5190</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3057,7 +3043,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3073,11 +3059,11 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>9.880000000000001</v>
+        <v>12.46</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -3090,7 +3076,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3106,11 +3092,11 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>8299.99</v>
+        <v>1220</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -3123,7 +3109,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3139,11 +3125,11 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>137.65</v>
+        <v>43.51</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -3156,7 +3142,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3172,11 +3158,11 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>610</v>
+        <v>3166</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -3189,7 +3175,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3205,11 +3191,11 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>6.68</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -3222,7 +3208,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3238,11 +3224,11 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>2719.8</v>
+        <v>5540.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -3255,7 +3241,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3271,11 +3257,11 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>6.98</v>
+        <v>37.95</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -3288,11 +3274,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
@@ -3304,11 +3290,11 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3427.1</v>
+        <v>100</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -3321,27 +3307,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>7.56</v>
+        <v>61.27</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -3354,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3370,11 +3356,11 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>300</v>
+        <v>3356.7</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -3387,7 +3373,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3403,11 +3389,11 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>35.7</v>
+        <v>124.32</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -3420,7 +3406,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3436,11 +3422,11 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>1650</v>
+        <v>15366</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:11</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -3453,7 +3439,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3469,11 +3455,11 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>21.06</v>
+        <v>58.43</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:11</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -3486,11 +3472,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
@@ -3502,11 +3488,11 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>1168</v>
+        <v>1620</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -3519,27 +3505,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -3552,11 +3536,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -3568,11 +3552,11 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>70</v>
+        <v>3680</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -3585,27 +3569,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>54.48</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -3618,7 +3600,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3638,7 +3620,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -3651,7 +3633,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3666,12 +3648,10 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>31.89</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -3684,7 +3664,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3700,11 +3680,11 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3125.75</v>
+        <v>5777.8</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -3717,7 +3697,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3733,11 +3713,11 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>21.22</v>
+        <v>4.55</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -3750,11 +3730,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -3766,11 +3746,11 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>6964.8</v>
+        <v>2070</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -3783,27 +3763,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>195.36</v>
+        <v>26.64</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:5</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -3816,7 +3796,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3832,11 +3812,11 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3705</v>
+        <v>5198.6</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -3849,7 +3829,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3865,11 +3845,11 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>162.15</v>
+        <v>117.22</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -3882,7 +3862,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3898,11 +3878,11 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>4060</v>
+        <v>400</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -3915,7 +3895,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3931,11 +3911,11 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>374.21</v>
+        <v>232.66</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -3948,11 +3928,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -3964,11 +3944,11 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>2294.8</v>
+        <v>1400</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -3981,27 +3961,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>374.21</v>
+        <v>4.74</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -4014,7 +3994,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4030,11 +4010,11 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>320</v>
+        <v>4089</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -4047,7 +4027,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4063,11 +4043,11 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>44.03</v>
+        <v>76.36</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -4080,11 +4060,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -4096,11 +4076,11 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>2240.1</v>
+        <v>855</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -4113,27 +4093,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.6899999999999999</v>
+        <v>88.98</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:2</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -4146,7 +4126,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4162,11 +4142,11 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>2619.6</v>
+        <v>3710</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -4179,7 +4159,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4194,12 +4174,10 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>43.45</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -4212,7 +4190,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4228,11 +4206,11 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>4130</v>
+        <v>4279.58</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -4245,7 +4223,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4261,11 +4239,11 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>149.83</v>
+        <v>48.65</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -4278,11 +4256,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -4294,11 +4272,11 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>2764.32</v>
+        <v>330</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -4311,27 +4289,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>13.95</v>
+        <v>115.44</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -4344,7 +4322,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4360,11 +4338,11 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>630</v>
+        <v>1360</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -4377,7 +4355,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4393,11 +4371,11 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>24.24</v>
+        <v>7.98</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -4410,11 +4388,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -4426,11 +4404,11 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>2224</v>
+        <v>7309.1</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -4443,27 +4421,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>39.56</v>
+        <v>14.47</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -4476,11 +4454,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -4492,11 +4470,11 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>2300</v>
+        <v>80</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -4509,27 +4487,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>26.7</v>
+        <v>161.92</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -4542,7 +4520,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4558,11 +4536,11 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>500</v>
+        <v>1561.8</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -4575,7 +4553,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4591,11 +4569,11 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>25.49</v>
+        <v>202.46</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -4608,7 +4586,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4624,11 +4602,11 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>6740.34</v>
+        <v>300</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -4641,7 +4619,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4656,10 +4634,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>44.88</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:7</t>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -4672,11 +4652,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -4688,11 +4668,11 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>300</v>
+        <v>2490</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -4705,27 +4685,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>70.15000000000001</v>
+        <v>19.51</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -4738,11 +4718,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -4754,11 +4734,11 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1354.5</v>
+        <v>372.56</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -4771,27 +4751,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>74.41</v>
+        <v>88.8</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -4804,7 +4784,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4820,11 +4800,11 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3910</v>
+        <v>1269.8</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -4837,7 +4817,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4853,11 +4833,11 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>28.44</v>
+        <v>49.72</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -4870,11 +4850,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -4886,11 +4866,11 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>310</v>
+        <v>6200</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:8</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -4903,27 +4883,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>51</v>
+        <v>28.63</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:8</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -4936,11 +4916,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -4952,11 +4932,11 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>1100</v>
+        <v>619.8</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -4969,32 +4949,2002 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>173.17</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>22</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>18</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>250</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>22</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>22</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>18</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>830</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>22</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>75.37</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>18</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>3192.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>22</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>23</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>18</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>500</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>23</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>22</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>18</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1920</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>22</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>22</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>18</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>200</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>22</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>22</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>18</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>4485</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>22</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>23</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>18</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>23</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>104.77</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>22</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>18</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>2538</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>22</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>22</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>18</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>980</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>22</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>22</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>18</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>4027.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>22</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>23</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>18</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>599.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>23</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>124.32</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>22</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>18</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>22</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>22</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>18</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>3678</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>22</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>23</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>18</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>460</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>23</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>68.37</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>22</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>18</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>3170</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>22</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:6</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>23</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>18</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1220</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>23</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>22</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>18</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>490</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>22</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>22</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>18</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>889.6</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>22</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>23</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>18</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1199.6</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>23</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>22</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>18</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>678</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>22</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>22</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>18</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1770</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>22</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>22</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>18</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>920</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>22</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Hipercard Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>22</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>18</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>3519.5</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>22</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>106.56</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:4</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>22</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>18</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>4464.39</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>22</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:3</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>22</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>18</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>600</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>22</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão American Express Cartão de Crédito - Nº de Vendas:1</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>22</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>18</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>580</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Elo Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>22</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Elo Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>22</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>18</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>4102</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>22</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão MasterCard Cartão de Crédito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>23</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>18</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>7987.5</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Modalidade Cartão de Débito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>23</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Modalidade Cartão de Débito - Nº de Vendas:5</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>22</v>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>18</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1120</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>22</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Vlr. Ref. Taxa Cartão Visa Cartão de Crédito - Nº de Vendas:2</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
